--- a/data.xlsx
+++ b/data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammad\Downloads\ScaleUp (1)\ScaleUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4945DD12-2961-426B-B99C-7835848CE431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E7F060-F760-4CA5-AA7D-9E812F866E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Curr - Rot" sheetId="1" r:id="rId1"/>
-    <sheet name="Rot - epipolar line" sheetId="2" r:id="rId2"/>
+    <sheet name="Curr" sheetId="1" r:id="rId1"/>
+    <sheet name="epi_line" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Curr Frame</t>
   </si>
@@ -367,302 +367,302 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
       <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>40.462006214559302</v>
+      </c>
+      <c r="D2">
+        <v>42.185213092471997</v>
+      </c>
+      <c r="E2">
+        <v>37.258566803588799</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>41.407009651732103</v>
+      </c>
+      <c r="D3">
+        <v>44.573912570530503</v>
+      </c>
+      <c r="E3">
+        <v>31.902552466441598</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4">
         <v>25</v>
       </c>
-      <c r="C2">
+      <c r="C4">
+        <v>42.809394453827998</v>
+      </c>
+      <c r="D4">
+        <v>47.276419422503203</v>
+      </c>
+      <c r="E4">
+        <v>24.6360762819398</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5">
         <v>24</v>
       </c>
-      <c r="E2">
-        <v>40.462006214559302</v>
-      </c>
-      <c r="G2">
-        <v>42.185213092471997</v>
-      </c>
-      <c r="I2">
-        <v>37.258566803588799</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="C5">
+        <v>41.509687342361801</v>
+      </c>
+      <c r="D5">
+        <v>42.473075983233898</v>
+      </c>
+      <c r="E5">
+        <v>33.777959745950803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>42.555159021842996</v>
+      </c>
+      <c r="D6">
+        <v>43.104860011347803</v>
+      </c>
+      <c r="E6">
+        <v>32.1968803087357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7">
         <v>26</v>
       </c>
-      <c r="C3">
+      <c r="C7">
+        <v>42.891713788668099</v>
+      </c>
+      <c r="D7">
+        <v>39.748192008584802</v>
+      </c>
+      <c r="E7">
+        <v>37.154562493459899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8">
         <v>24</v>
       </c>
-      <c r="E3">
-        <v>41.407009651732103</v>
-      </c>
-      <c r="G3">
-        <v>44.573912570530503</v>
-      </c>
-      <c r="I3">
-        <v>31.902552466441598</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="C8">
+        <v>40.3906680772728</v>
+      </c>
+      <c r="D8">
+        <v>41.665233076397897</v>
+      </c>
+      <c r="E8">
+        <v>35.520413196614498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>40.895177062049001</v>
+      </c>
+      <c r="D9">
+        <v>42.009110204127502</v>
+      </c>
+      <c r="E9">
+        <v>35.516183510100703</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10">
         <v>26</v>
       </c>
-      <c r="C4">
+      <c r="C10">
+        <v>40.509887922627001</v>
+      </c>
+      <c r="D10">
+        <v>40.107204569557702</v>
+      </c>
+      <c r="E10">
+        <v>39.044342154911</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>38.915456372107201</v>
+      </c>
+      <c r="D11">
+        <v>41.017062849831497</v>
+      </c>
+      <c r="E11">
+        <v>41.904189022547499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>40.277142991345698</v>
+      </c>
+      <c r="D12">
+        <v>40.699862832454002</v>
+      </c>
+      <c r="E12">
+        <v>36.841568443940801</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>42.809394453827998</v>
-      </c>
-      <c r="G4">
-        <v>47.276419422503203</v>
-      </c>
-      <c r="I4">
-        <v>24.6360762819398</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="C13">
+        <v>40.760914974505503</v>
+      </c>
+      <c r="D13">
+        <v>40.8674177179346</v>
+      </c>
+      <c r="E13">
+        <v>37.463933256136798</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>40.646856508320802</v>
+      </c>
+      <c r="D14">
+        <v>39.4535479420828</v>
+      </c>
+      <c r="E14">
+        <v>40.5119258185386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15">
         <v>27</v>
       </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="E5">
-        <v>41.509687342361801</v>
-      </c>
-      <c r="G5">
-        <v>42.473075983233898</v>
-      </c>
-      <c r="I5">
-        <v>33.777959745950803</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="E6">
-        <v>42.555159021842996</v>
-      </c>
-      <c r="G6">
-        <v>43.104860011347803</v>
-      </c>
-      <c r="I6">
-        <v>32.1968803087357</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="E7">
-        <v>42.891713788668099</v>
-      </c>
-      <c r="G7">
-        <v>39.748192008584802</v>
-      </c>
-      <c r="I7">
-        <v>37.154562493459899</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="C15">
+        <v>40.1373761450822</v>
+      </c>
+      <c r="D15">
+        <v>39.856190653490302</v>
+      </c>
+      <c r="E15">
+        <v>43.523502341365003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>29</v>
+      </c>
+      <c r="B16">
         <v>28</v>
       </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>40.3906680772728</v>
-      </c>
-      <c r="G8">
-        <v>41.665233076397897</v>
-      </c>
-      <c r="I8">
-        <v>35.520413196614498</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>40.895177062049001</v>
-      </c>
-      <c r="G9">
-        <v>42.009110204127502</v>
-      </c>
-      <c r="I9">
-        <v>35.516183510100703</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>40.509887922627001</v>
-      </c>
-      <c r="G10">
-        <v>40.107204569557702</v>
-      </c>
-      <c r="I10">
-        <v>39.044342154911</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>38.915456372107201</v>
-      </c>
-      <c r="G11">
-        <v>41.017062849831497</v>
-      </c>
-      <c r="I11">
-        <v>41.904189022547499</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>40.277142991345698</v>
-      </c>
-      <c r="G12">
-        <v>40.699862832454002</v>
-      </c>
-      <c r="I12">
-        <v>36.841568443940801</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>40.760914974505503</v>
-      </c>
-      <c r="G13">
-        <v>40.8674177179346</v>
-      </c>
-      <c r="I13">
-        <v>37.463933256136798</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>29</v>
-      </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="E14">
-        <v>40.646856508320802</v>
-      </c>
-      <c r="G14">
-        <v>39.4535479420828</v>
-      </c>
-      <c r="I14">
-        <v>40.5119258185386</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="E15">
-        <v>40.1373761450822</v>
-      </c>
-      <c r="G15">
-        <v>39.856190653490302</v>
-      </c>
-      <c r="I15">
-        <v>43.523502341365003</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>29</v>
-      </c>
       <c r="C16">
-        <v>28</v>
+        <v>42.053514850305802</v>
+      </c>
+      <c r="D16">
+        <v>39.293934362367096</v>
       </c>
       <c r="E16">
-        <v>42.053514850305802</v>
-      </c>
-      <c r="G16">
-        <v>39.293934362367096</v>
-      </c>
-      <c r="I16">
         <v>46.496895421801703</v>
       </c>
     </row>
@@ -673,15 +673,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E04C1D-C589-4626-9770-639B0D476957}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -689,321 +689,270 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>25</v>
       </c>
       <c r="C2">
         <v>24</v>
       </c>
+      <c r="D2">
+        <v>41.820002585712601</v>
+      </c>
       <c r="E2">
-        <v>41.820002585712601</v>
-      </c>
-      <c r="G2">
         <v>42.994994514355497</v>
       </c>
-      <c r="I2">
+      <c r="F2">
         <v>37.680183736033797</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>26</v>
       </c>
       <c r="C3">
         <v>24</v>
       </c>
+      <c r="D3">
+        <v>42.3927537159908</v>
+      </c>
       <c r="E3">
-        <v>42.3927537159908</v>
-      </c>
-      <c r="G3">
         <v>44.724349467936896</v>
       </c>
-      <c r="I3">
+      <c r="F3">
         <v>31.920142277396899</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>26</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
+      <c r="D4">
+        <v>43.412158293120598</v>
+      </c>
       <c r="E4">
-        <v>43.412158293120598</v>
-      </c>
-      <c r="G4">
         <v>49.397034686252397</v>
       </c>
-      <c r="I4">
+      <c r="F4">
         <v>25.290119488590602</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>27</v>
       </c>
       <c r="C5">
         <v>24</v>
       </c>
+      <c r="D5">
+        <v>41.551091109676499</v>
+      </c>
       <c r="E5">
-        <v>41.551091109676499</v>
-      </c>
-      <c r="G5">
         <v>42.526189884843397</v>
       </c>
-      <c r="I5">
+      <c r="F5">
         <v>33.905494006680897</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>27</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
+      <c r="D6">
+        <v>42.775847884855096</v>
+      </c>
       <c r="E6">
-        <v>42.775847884855096</v>
-      </c>
-      <c r="G6">
         <v>43.630835239522703</v>
       </c>
-      <c r="I6">
+      <c r="F6">
         <v>32.288880453281699</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>5</v>
-      </c>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>27</v>
       </c>
       <c r="C7">
         <v>26</v>
       </c>
+      <c r="D7">
+        <v>47.384142247891504</v>
+      </c>
       <c r="E7">
-        <v>47.384142247891504</v>
-      </c>
-      <c r="G7">
         <v>39.765661506288701</v>
       </c>
-      <c r="I7">
+      <c r="F7">
         <v>38.563750852370802</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
-      </c>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>28</v>
       </c>
       <c r="C8">
         <v>24</v>
       </c>
+      <c r="D8">
+        <v>40.529926499905102</v>
+      </c>
       <c r="E8">
-        <v>40.529926499905102</v>
-      </c>
-      <c r="G8">
         <v>41.765433392820299</v>
       </c>
-      <c r="I8">
+      <c r="F8">
         <v>35.575213703064499</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
-      </c>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>28</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
+      <c r="D9">
+        <v>40.900836441056597</v>
+      </c>
       <c r="E9">
-        <v>40.900836441056597</v>
-      </c>
-      <c r="G9">
         <v>42.467595994751299</v>
       </c>
-      <c r="I9">
+      <c r="F9">
         <v>35.519811625294203</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>8</v>
-      </c>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>28</v>
       </c>
       <c r="C10">
         <v>26</v>
       </c>
+      <c r="D10">
+        <v>40.574168497497901</v>
+      </c>
       <c r="E10">
-        <v>40.574168497497901</v>
-      </c>
-      <c r="G10">
         <v>40.152448334572803</v>
       </c>
-      <c r="I10">
+      <c r="F10">
         <v>39.409774379072999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>9</v>
-      </c>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>28</v>
       </c>
       <c r="C11">
         <v>27</v>
       </c>
+      <c r="D11">
+        <v>39.469235700087197</v>
+      </c>
       <c r="E11">
-        <v>39.469235700087197</v>
-      </c>
-      <c r="G11">
         <v>41.340930655677603</v>
       </c>
-      <c r="I11">
+      <c r="F11">
         <v>41.9334933315982</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>10</v>
-      </c>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>29</v>
       </c>
       <c r="C12">
         <v>24</v>
       </c>
+      <c r="D12">
+        <v>40.341964164199503</v>
+      </c>
       <c r="E12">
-        <v>40.341964164199503</v>
-      </c>
-      <c r="G12">
         <v>40.719361391523201</v>
       </c>
-      <c r="I12">
+      <c r="F12">
         <v>36.898788737261597</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>11</v>
-      </c>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>29</v>
       </c>
       <c r="C13">
         <v>25</v>
       </c>
+      <c r="D13">
+        <v>40.761002382563497</v>
+      </c>
       <c r="E13">
-        <v>40.761002382563497</v>
-      </c>
-      <c r="G13">
         <v>40.998189029998699</v>
       </c>
-      <c r="I13">
+      <c r="F13">
         <v>37.468132050981502</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>12</v>
-      </c>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>29</v>
       </c>
       <c r="C14">
         <v>26</v>
       </c>
+      <c r="D14">
+        <v>40.7135089587319</v>
+      </c>
       <c r="E14">
-        <v>40.7135089587319</v>
-      </c>
-      <c r="G14">
         <v>39.4544365835172</v>
       </c>
-      <c r="I14">
+      <c r="F14">
         <v>40.790200449431502</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>13</v>
-      </c>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>29</v>
       </c>
       <c r="C15">
         <v>27</v>
       </c>
+      <c r="D15">
+        <v>40.242288997400898</v>
+      </c>
       <c r="E15">
-        <v>40.242288997400898</v>
-      </c>
-      <c r="G15">
         <v>39.856376706928003</v>
       </c>
-      <c r="I15">
+      <c r="F15">
         <v>43.672381702387</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>14</v>
-      </c>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>29</v>
       </c>
       <c r="C16">
         <v>28</v>
       </c>
+      <c r="D16">
+        <v>42.137358919741303</v>
+      </c>
       <c r="E16">
-        <v>42.137358919741303</v>
-      </c>
-      <c r="G16">
         <v>39.5028346676756</v>
       </c>
-      <c r="I16">
+      <c r="F16">
         <v>46.531170835644801</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohammad\Downloads\ScaleUp (1)\ScaleUp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E7F060-F760-4CA5-AA7D-9E812F866E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{196C9D89-1FB8-4C57-8D72-399DD76DD7EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,21 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Curr Frame</t>
   </si>
   <si>
     <t>Prev  Frame</t>
-  </si>
-  <si>
-    <t>right tfl</t>
-  </si>
-  <si>
-    <t>left tfl loc</t>
-  </si>
-  <si>
-    <t>upper tfl loc</t>
   </si>
   <si>
     <t>dist to left tfl</t>
@@ -367,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -385,7 +376,7 @@
     <col min="8" max="8" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,25 +384,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>25</v>
       </c>
@@ -428,7 +410,7 @@
         <v>37.258566803588799</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>26</v>
       </c>
@@ -445,7 +427,7 @@
         <v>31.902552466441598</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>26</v>
       </c>
@@ -462,7 +444,7 @@
         <v>24.6360762819398</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27</v>
       </c>
@@ -479,7 +461,7 @@
         <v>33.777959745950803</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>27</v>
       </c>
@@ -496,7 +478,7 @@
         <v>32.1968803087357</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>27</v>
       </c>
@@ -513,7 +495,7 @@
         <v>37.154562493459899</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>28</v>
       </c>
@@ -530,7 +512,7 @@
         <v>35.520413196614498</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>28</v>
       </c>
@@ -547,7 +529,7 @@
         <v>35.516183510100703</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>28</v>
       </c>
@@ -564,7 +546,7 @@
         <v>39.044342154911</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>28</v>
       </c>
@@ -581,7 +563,7 @@
         <v>41.904189022547499</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>29</v>
       </c>
@@ -598,7 +580,7 @@
         <v>36.841568443940801</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>29</v>
       </c>
@@ -615,7 +597,7 @@
         <v>37.463933256136798</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>29</v>
       </c>
@@ -632,7 +614,7 @@
         <v>40.5119258185386</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>29</v>
       </c>
@@ -649,7 +631,7 @@
         <v>43.523502341365003</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>29</v>
       </c>
@@ -673,286 +655,283 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37E04C1D-C589-4626-9770-639B0D476957}">
-  <dimension ref="B1:H16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
       <c r="B2">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>41.820002585712601</v>
+      </c>
+      <c r="D2">
+        <v>42.994994514355497</v>
+      </c>
+      <c r="E2">
+        <v>37.680183736033797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>26</v>
+      </c>
+      <c r="B3">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>42.3927537159908</v>
+      </c>
+      <c r="D3">
+        <v>44.724349467936896</v>
+      </c>
+      <c r="E3">
+        <v>31.920142277396899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>26</v>
+      </c>
+      <c r="B4">
         <v>25</v>
       </c>
-      <c r="C2">
+      <c r="C4">
+        <v>43.412158293120598</v>
+      </c>
+      <c r="D4">
+        <v>49.397034686252397</v>
+      </c>
+      <c r="E4">
+        <v>25.290119488590602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>27</v>
+      </c>
+      <c r="B5">
         <v>24</v>
       </c>
-      <c r="D2">
-        <v>41.820002585712601</v>
-      </c>
-      <c r="E2">
-        <v>42.994994514355497</v>
-      </c>
-      <c r="F2">
-        <v>37.680183736033797</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3">
+      <c r="C5">
+        <v>41.551091109676499</v>
+      </c>
+      <c r="D5">
+        <v>42.526189884843397</v>
+      </c>
+      <c r="E5">
+        <v>33.905494006680897</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>27</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>42.775847884855096</v>
+      </c>
+      <c r="D6">
+        <v>43.630835239522703</v>
+      </c>
+      <c r="E6">
+        <v>32.288880453281699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>27</v>
+      </c>
+      <c r="B7">
         <v>26</v>
       </c>
-      <c r="C3">
+      <c r="C7">
+        <v>47.384142247891504</v>
+      </c>
+      <c r="D7">
+        <v>39.765661506288701</v>
+      </c>
+      <c r="E7">
+        <v>38.563750852370802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>28</v>
+      </c>
+      <c r="B8">
         <v>24</v>
       </c>
-      <c r="D3">
-        <v>42.3927537159908</v>
-      </c>
-      <c r="E3">
-        <v>44.724349467936896</v>
-      </c>
-      <c r="F3">
-        <v>31.920142277396899</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4">
+      <c r="C8">
+        <v>40.529926499905102</v>
+      </c>
+      <c r="D8">
+        <v>41.765433392820299</v>
+      </c>
+      <c r="E8">
+        <v>35.575213703064499</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>40.900836441056597</v>
+      </c>
+      <c r="D9">
+        <v>42.467595994751299</v>
+      </c>
+      <c r="E9">
+        <v>35.519811625294203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10">
         <v>26</v>
       </c>
-      <c r="C4">
+      <c r="C10">
+        <v>40.574168497497901</v>
+      </c>
+      <c r="D10">
+        <v>40.152448334572803</v>
+      </c>
+      <c r="E10">
+        <v>39.409774379072999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>39.469235700087197</v>
+      </c>
+      <c r="D11">
+        <v>41.340930655677603</v>
+      </c>
+      <c r="E11">
+        <v>41.9334933315982</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="C12">
+        <v>40.341964164199503</v>
+      </c>
+      <c r="D12">
+        <v>40.719361391523201</v>
+      </c>
+      <c r="E12">
+        <v>36.898788737261597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>29</v>
+      </c>
+      <c r="B13">
         <v>25</v>
       </c>
-      <c r="D4">
-        <v>43.412158293120598</v>
-      </c>
-      <c r="E4">
-        <v>49.397034686252397</v>
-      </c>
-      <c r="F4">
-        <v>25.290119488590602</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5">
+      <c r="C13">
+        <v>40.761002382563497</v>
+      </c>
+      <c r="D13">
+        <v>40.998189029998699</v>
+      </c>
+      <c r="E13">
+        <v>37.468132050981502</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="C14">
+        <v>40.7135089587319</v>
+      </c>
+      <c r="D14">
+        <v>39.4544365835172</v>
+      </c>
+      <c r="E14">
+        <v>40.790200449431502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>29</v>
+      </c>
+      <c r="B15">
         <v>27</v>
       </c>
-      <c r="C5">
-        <v>24</v>
-      </c>
-      <c r="D5">
-        <v>41.551091109676499</v>
-      </c>
-      <c r="E5">
-        <v>42.526189884843397</v>
-      </c>
-      <c r="F5">
-        <v>33.905494006680897</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>27</v>
-      </c>
-      <c r="C6">
-        <v>25</v>
-      </c>
-      <c r="D6">
-        <v>42.775847884855096</v>
-      </c>
-      <c r="E6">
-        <v>43.630835239522703</v>
-      </c>
-      <c r="F6">
-        <v>32.288880453281699</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>27</v>
-      </c>
-      <c r="C7">
-        <v>26</v>
-      </c>
-      <c r="D7">
-        <v>47.384142247891504</v>
-      </c>
-      <c r="E7">
-        <v>39.765661506288701</v>
-      </c>
-      <c r="F7">
-        <v>38.563750852370802</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8">
+      <c r="C15">
+        <v>40.242288997400898</v>
+      </c>
+      <c r="D15">
+        <v>39.856376706928003</v>
+      </c>
+      <c r="E15">
+        <v>43.672381702387</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>29</v>
+      </c>
+      <c r="B16">
         <v>28</v>
       </c>
-      <c r="C8">
-        <v>24</v>
-      </c>
-      <c r="D8">
-        <v>40.529926499905102</v>
-      </c>
-      <c r="E8">
-        <v>41.765433392820299</v>
-      </c>
-      <c r="F8">
-        <v>35.575213703064499</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>28</v>
-      </c>
-      <c r="C9">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>40.900836441056597</v>
-      </c>
-      <c r="E9">
-        <v>42.467595994751299</v>
-      </c>
-      <c r="F9">
-        <v>35.519811625294203</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>28</v>
-      </c>
-      <c r="C10">
-        <v>26</v>
-      </c>
-      <c r="D10">
-        <v>40.574168497497901</v>
-      </c>
-      <c r="E10">
-        <v>40.152448334572803</v>
-      </c>
-      <c r="F10">
-        <v>39.409774379072999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>39.469235700087197</v>
-      </c>
-      <c r="E11">
-        <v>41.340930655677603</v>
-      </c>
-      <c r="F11">
-        <v>41.9334933315982</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>40.341964164199503</v>
-      </c>
-      <c r="E12">
-        <v>40.719361391523201</v>
-      </c>
-      <c r="F12">
-        <v>36.898788737261597</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>29</v>
-      </c>
-      <c r="C13">
-        <v>25</v>
-      </c>
-      <c r="D13">
-        <v>40.761002382563497</v>
-      </c>
-      <c r="E13">
-        <v>40.998189029998699</v>
-      </c>
-      <c r="F13">
-        <v>37.468132050981502</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14">
-        <v>29</v>
-      </c>
-      <c r="C14">
-        <v>26</v>
-      </c>
-      <c r="D14">
-        <v>40.7135089587319</v>
-      </c>
-      <c r="E14">
-        <v>39.4544365835172</v>
-      </c>
-      <c r="F14">
-        <v>40.790200449431502</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>29</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
-      </c>
-      <c r="D15">
-        <v>40.242288997400898</v>
-      </c>
-      <c r="E15">
-        <v>39.856376706928003</v>
-      </c>
-      <c r="F15">
-        <v>43.672381702387</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>29</v>
-      </c>
       <c r="C16">
-        <v>28</v>
+        <v>42.137358919741303</v>
       </c>
       <c r="D16">
-        <v>42.137358919741303</v>
+        <v>39.5028346676756</v>
       </c>
       <c r="E16">
-        <v>39.5028346676756</v>
-      </c>
-      <c r="F16">
         <v>46.531170835644801</v>
       </c>
     </row>
